--- a/DOC/基本設計/社内管理_③給料明細リスト.xlsx
+++ b/DOC/基本設計/社内管理_③給料明細リスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9215" tabRatio="833"/>
+    <workbookView windowWidth="18468" windowHeight="9215" tabRatio="833" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="履歴一覧" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>　　社内管理システム_給料明細</t>
   </si>
@@ -54,7 +54,7 @@
     <t>機能ID：</t>
   </si>
   <si>
-    <t>p0004</t>
+    <t>E001</t>
   </si>
   <si>
     <t>機能名称：</t>
@@ -168,7 +168,7 @@
     <t>(employeeID,month,base,)</t>
   </si>
   <si>
-    <t>values ('E001','202001',’60000’);</t>
+    <t>values ('E001','202202',’60000’);</t>
   </si>
   <si>
     <t>2)画面初期表示時、当年度、次年度ボタン、前年度ボタンを表示する。</t>
@@ -191,13 +191,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-411]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="[$-411]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +209,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -248,24 +241,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,8 +263,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +318,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,52 +348,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,14 +378,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,7 +400,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,25 +514,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,79 +538,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,61 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,30 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -768,17 +731,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,8 +758,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,162 +817,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,9 +998,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1032,22 +1016,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1056,15 +1040,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1083,10 +1073,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1318,7 +1305,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7044055" y="1755140"/>
+          <a:off x="7044055" y="1764665"/>
           <a:ext cx="617220" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1485,7 +1472,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7051675" y="1968500"/>
+          <a:off x="7051675" y="1978025"/>
           <a:ext cx="617220" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1652,7 +1639,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7066915" y="2204720"/>
+          <a:off x="7066915" y="2214245"/>
           <a:ext cx="617220" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1819,7 +1806,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7074535" y="2440940"/>
+          <a:off x="7074535" y="2450465"/>
           <a:ext cx="617220" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1986,7 +1973,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7082155" y="2669540"/>
+          <a:off x="7082155" y="2679065"/>
           <a:ext cx="617220" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2153,7 +2140,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7082155" y="2898140"/>
+          <a:off x="7082155" y="2907665"/>
           <a:ext cx="617220" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2563,7 +2550,7 @@
   <sheetPr/>
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2581,111 +2568,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="30" t="s">
+    <row r="3" ht="18.75" spans="2:5">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="2:5">
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="33">
         <v>44662</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2700,7 +2687,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2762,11 +2749,11 @@
       <c r="AC1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
     </row>
     <row r="2" ht="18.75" spans="1:34">
       <c r="A2" s="3" t="s">
@@ -2844,7 +2831,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="AA3" s="5"/>
@@ -2854,7 +2841,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="15"/>
+      <c r="AH3" s="14"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="4"/>
@@ -2865,10 +2852,10 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>2022</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -2884,7 +2871,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="26"/>
+      <c r="Z4" s="28"/>
       <c r="AA4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2894,9 +2881,9 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="15"/>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AH4" s="14"/>
+    </row>
+    <row r="5" ht="18.75" spans="1:34">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2922,7 +2909,7 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="26"/>
+      <c r="Z5" s="28"/>
       <c r="AA5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2932,45 +2919,47 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="15"/>
+      <c r="AH5" s="14"/>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:34">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="23" t="s">
         <v>28</v>
       </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="O6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -2978,55 +2967,57 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="26"/>
+      <c r="Z6" s="28"/>
       <c r="AA6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="15"/>
+      <c r="AH6" s="14"/>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19">
         <v>202202</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>60000</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>0</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <v>0</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>0</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>0</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="21">
         <v>60000</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="23" t="s">
         <v>30</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -3034,48 +3025,48 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="27" t="s">
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="15"/>
+      <c r="AH7" s="14"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>202203</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>60000</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>0</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>0</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <v>0</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>0</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>0</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="21">
         <v>60000</v>
       </c>
-      <c r="M8" s="24"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -3088,8 +3079,8 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="28" t="s">
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AB8" s="5"/>
@@ -3098,38 +3089,38 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="15"/>
+      <c r="AH8" s="14"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>202204</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>60000</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>0</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>0</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <v>0</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>0</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>0</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="21">
         <v>60000</v>
       </c>
-      <c r="M9" s="24"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -3142,8 +3133,8 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="28" t="s">
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="29" t="s">
         <v>33</v>
       </c>
       <c r="AB9" s="5"/>
@@ -3152,38 +3143,38 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="15"/>
+      <c r="AH9" s="14"/>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>202205</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>60000</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>0</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>0</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="21">
         <v>0</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <v>0</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>0</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="21">
         <v>60000</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -3196,7 +3187,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="26"/>
+      <c r="Z10" s="28"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -3204,38 +3195,38 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="15"/>
+      <c r="AH10" s="14"/>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>202208</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>60000</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>0</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>0</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="21">
         <v>0</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <v>0</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <v>0</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="21">
         <v>60000</v>
       </c>
-      <c r="M11" s="24"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -3248,7 +3239,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="26"/>
+      <c r="Z11" s="28"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -3256,38 +3247,38 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="15"/>
+      <c r="AH11" s="14"/>
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>202212</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>60000</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>0</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>0</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <v>0</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>0</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>0</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="21">
         <v>60000</v>
       </c>
-      <c r="M12" s="24"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -3300,7 +3291,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="26"/>
+      <c r="Z12" s="28"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -3308,7 +3299,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="15"/>
+      <c r="AH12" s="14"/>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="4"/>
@@ -3336,7 +3327,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="26"/>
+      <c r="Z13" s="28"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -3344,7 +3335,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="15"/>
+      <c r="AH13" s="14"/>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="4"/>
@@ -3372,7 +3363,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="26"/>
+      <c r="Z14" s="28"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -3380,7 +3371,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="15"/>
+      <c r="AH14" s="14"/>
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="4"/>
@@ -3408,7 +3399,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="26"/>
+      <c r="Z15" s="28"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -3416,7 +3407,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="15"/>
+      <c r="AH15" s="14"/>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="4"/>
@@ -3444,7 +3435,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="26"/>
+      <c r="Z16" s="28"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
@@ -3452,7 +3443,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="15"/>
+      <c r="AH16" s="14"/>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="4"/>
@@ -3480,7 +3471,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="26"/>
+      <c r="Z17" s="28"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -3488,7 +3479,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="15"/>
+      <c r="AH17" s="14"/>
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="4"/>
@@ -3516,7 +3507,7 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="26"/>
+      <c r="Z18" s="28"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -3524,7 +3515,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="15"/>
+      <c r="AH18" s="14"/>
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="4"/>
@@ -3552,7 +3543,7 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="26"/>
+      <c r="Z19" s="28"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
@@ -3560,43 +3551,43 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
-      <c r="AH19" s="15"/>
+      <c r="AH19" s="14"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="16"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="15"/>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="4" t="s">
@@ -3634,7 +3625,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="15"/>
+      <c r="AH21" s="14"/>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="4"/>
@@ -3672,7 +3663,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
-      <c r="AH22" s="15"/>
+      <c r="AH22" s="14"/>
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="4"/>
@@ -3710,14 +3701,14 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
-      <c r="AH23" s="15"/>
+      <c r="AH23" s="14"/>
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="4"/>
       <c r="B24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3748,7 +3739,7 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="15"/>
+      <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="4"/>
@@ -3784,43 +3775,43 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
-      <c r="AH25" s="15"/>
+      <c r="AH25" s="14"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="16"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3847,8 +3838,8 @@
   <sheetPr/>
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17:X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3896,13 +3887,13 @@
       <c r="AC1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-    </row>
-    <row r="2" ht="18.75" spans="1:34">
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3978,7 +3969,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="14"/>
+      <c r="Z3" s="13"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
@@ -3986,7 +3977,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="15"/>
+      <c r="AH3" s="14"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="4"/>
@@ -4024,7 +4015,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="15"/>
+      <c r="AH4" s="14"/>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="4"/>
@@ -4064,7 +4055,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="15"/>
+      <c r="AH5" s="14"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="4"/>
@@ -4104,7 +4095,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="15"/>
+      <c r="AH6" s="14"/>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="4"/>
@@ -4142,7 +4133,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="15"/>
+      <c r="AH7" s="14"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="4"/>
@@ -4180,7 +4171,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="15"/>
+      <c r="AH8" s="14"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="4"/>
@@ -4218,7 +4209,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="15"/>
+      <c r="AH9" s="14"/>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="4"/>
@@ -4256,7 +4247,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="15"/>
+      <c r="AH10" s="14"/>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="4"/>
@@ -4294,7 +4285,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="15"/>
+      <c r="AH11" s="14"/>
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="4"/>
@@ -4330,7 +4321,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="15"/>
+      <c r="AH12" s="14"/>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="4"/>
@@ -4368,7 +4359,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="15"/>
+      <c r="AH13" s="14"/>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="4"/>
@@ -4406,7 +4397,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="15"/>
+      <c r="AH14" s="14"/>
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="4"/>
@@ -4444,7 +4435,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="15"/>
+      <c r="AH15" s="14"/>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="4"/>
@@ -4480,7 +4471,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="15"/>
+      <c r="AH16" s="14"/>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="4"/>
@@ -4516,7 +4507,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="15"/>
+      <c r="AH17" s="14"/>
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="4"/>
@@ -4554,7 +4545,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="15"/>
+      <c r="AH18" s="14"/>
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="4"/>
@@ -4590,7 +4581,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
-      <c r="AH19" s="15"/>
+      <c r="AH19" s="14"/>
     </row>
     <row r="20" spans="1:34">
       <c r="A20" s="4"/>
@@ -4628,7 +4619,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="15"/>
+      <c r="AH20" s="14"/>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="4"/>
@@ -4664,7 +4655,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="15"/>
+      <c r="AH21" s="14"/>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="4"/>
@@ -4702,7 +4693,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
-      <c r="AH22" s="15"/>
+      <c r="AH22" s="14"/>
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="4"/>
@@ -4738,7 +4729,7 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
-      <c r="AH23" s="15"/>
+      <c r="AH23" s="14"/>
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="4"/>
@@ -4774,7 +4765,7 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="15"/>
+      <c r="AH24" s="14"/>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="4"/>
@@ -4810,15 +4801,15 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
-      <c r="AH25" s="15"/>
+      <c r="AH25" s="14"/>
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="4"/>
       <c r="B26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -4848,15 +4839,15 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
-      <c r="AH26" s="15"/>
+      <c r="AH26" s="14"/>
     </row>
     <row r="27" spans="1:34">
       <c r="A27" s="4"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -4886,13 +4877,13 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="15"/>
+      <c r="AH27" s="14"/>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="4"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -4922,7 +4913,7 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="15"/>
+      <c r="AH28" s="14"/>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" s="4"/>
@@ -4958,7 +4949,7 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
-      <c r="AH29" s="15"/>
+      <c r="AH29" s="14"/>
     </row>
     <row r="30" spans="1:34">
       <c r="A30" s="4"/>
@@ -4994,7 +4985,7 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="15"/>
+      <c r="AH30" s="14"/>
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="4"/>
@@ -5030,43 +5021,43 @@
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
-      <c r="AH31" s="15"/>
+      <c r="AH31" s="14"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="16"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/DOC/基本設計/社内管理_③給料明細リスト.xlsx
+++ b/DOC/基本設計/社内管理_③給料明細リスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>　　社内管理システム_給料明細</t>
   </si>
@@ -75,9 +75,6 @@
     <t>１）給料明細</t>
   </si>
   <si>
-    <t>２）社員情報</t>
-  </si>
-  <si>
     <t>年月</t>
   </si>
   <si>
@@ -105,19 +102,7 @@
     <t>明細へ</t>
   </si>
   <si>
-    <t>３）契約情報</t>
-  </si>
-  <si>
     <t>明細</t>
-  </si>
-  <si>
-    <t>４）勤怠情報</t>
-  </si>
-  <si>
-    <t>５）交通費情報</t>
-  </si>
-  <si>
-    <t>６）福祉控除情報</t>
   </si>
   <si>
     <t>機能</t>
@@ -162,22 +147,22 @@
     <t>などなど、画面全項目</t>
   </si>
   <si>
-    <t xml:space="preserve">Insert into salaryinfo </t>
+    <t>FROM　salaryinfo</t>
   </si>
   <si>
-    <t>(employeeID,month,base,)</t>
+    <t xml:space="preserve">WHERE employeeID=ログイン者ID </t>
   </si>
   <si>
-    <t>values ('E001','202202',’60000’);</t>
+    <t>AND　month ＝年度</t>
   </si>
   <si>
     <t>2)画面初期表示時、当年度、次年度ボタン、前年度ボタンを表示する。</t>
   </si>
   <si>
-    <t>3)前月ボタンを押した場合、現在年月を代わりに画面月の前月分給料明細を取得し、表示する。</t>
+    <t>3)前年度ボタンを押した場合、現在年月を代わりに画面年度の前年度分給料明細を取得し、表示する。</t>
   </si>
   <si>
-    <t>4)次月ボタンを押した場合、現在年月を代わりに画面月の次月分給料明細を取得し、表示する。</t>
+    <t>4)次年度ボタンを押した場合、現在年月を代わりに画面年度の次年度分給料明細を取得し、表示する。</t>
   </si>
   <si>
     <t>6)明細ボタンの場合、明細画面が遷移できる。</t>
@@ -967,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,13 +1025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -2569,38 +2548,38 @@
       </c>
     </row>
     <row r="3" ht="18.75" spans="2:5">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="2:5">
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>44662</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="23"/>
@@ -2686,8 +2665,8 @@
   <sheetPr/>
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2746,7 +2725,7 @@
       </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AD1" s="12"/>
@@ -2831,7 +2810,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="27" t="s">
+      <c r="Z3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="AA3" s="5"/>
@@ -2871,7 +2850,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="28"/>
+      <c r="Z4" s="26"/>
       <c r="AA4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2909,10 +2888,8 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
@@ -2927,39 +2904,37 @@
       <c r="C6" s="5"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="K6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="L6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -2967,10 +2942,8 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="5"/>
@@ -3009,15 +2982,13 @@
         <v>60000</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -3025,10 +2996,8 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="27"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="5"/>
@@ -3079,10 +3048,8 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="27"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
@@ -3133,10 +3100,8 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="29" t="s">
-        <v>33</v>
-      </c>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="27"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -3187,7 +3152,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="28"/>
+      <c r="Z10" s="26"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -3239,7 +3204,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="28"/>
+      <c r="Z11" s="26"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -3291,7 +3256,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="28"/>
+      <c r="Z12" s="26"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -3327,7 +3292,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="28"/>
+      <c r="Z13" s="26"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -3363,7 +3328,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="28"/>
+      <c r="Z14" s="26"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -3399,7 +3364,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="28"/>
+      <c r="Z15" s="26"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -3435,7 +3400,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="28"/>
+      <c r="Z16" s="26"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
@@ -3471,7 +3436,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="28"/>
+      <c r="Z17" s="26"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -3507,7 +3472,7 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="28"/>
+      <c r="Z18" s="26"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -3543,7 +3508,7 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="28"/>
+      <c r="Z19" s="26"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
@@ -3579,7 +3544,7 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="30"/>
+      <c r="Z20" s="28"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
@@ -3591,7 +3556,7 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -3630,7 +3595,7 @@
     <row r="22" spans="1:34">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3668,7 +3633,7 @@
     <row r="23" spans="1:34">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -3706,7 +3671,7 @@
     <row r="24" spans="1:34">
       <c r="A24" s="4"/>
       <c r="B24" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="5"/>
@@ -3838,8 +3803,8 @@
   <sheetPr/>
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17:X17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3884,7 +3849,7 @@
       </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AD1" s="12"/>
@@ -3982,7 +3947,7 @@
     <row r="4" spans="1:34">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -4021,7 +3986,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -4039,7 +4004,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -4061,7 +4026,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4080,7 +4045,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -4102,7 +4067,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4142,7 +4107,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -4180,7 +4145,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -4218,7 +4183,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -4257,7 +4222,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -4329,7 +4294,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -4367,7 +4332,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -4405,7 +4370,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -4512,7 +4477,7 @@
     <row r="18" spans="1:34">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -4586,7 +4551,7 @@
     <row r="20" spans="1:34">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -4660,7 +4625,7 @@
     <row r="22" spans="1:34">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -4806,7 +4771,7 @@
     <row r="26" spans="1:34">
       <c r="A26" s="4"/>
       <c r="B26" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4845,7 +4810,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="5"/>
